--- a/tnp/tnpsvnit.xlsx
+++ b/tnp/tnpsvnit.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,12 +586,12 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>jay</t>
+          <t>u17co083</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Jay Shah</t>
+          <t>Shail Parikh</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
@@ -600,50 +600,46 @@
         </is>
       </c>
       <c r="E6" s="5" t="n">
-        <v>36561</v>
+        <v>36530</v>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
           <t>Vadodara</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Vadodara</t>
-        </is>
-      </c>
+      <c r="G6" s="4" t="inlineStr"/>
       <c r="H6" s="4" t="n">
         <v>90</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>8.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>8.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="P6" s="4" t="inlineStr">
         <is>
-          <t>sjay5200@gmail.com</t>
+          <t>shailparikh2000@gmail.com</t>
         </is>
       </c>
       <c r="Q6" s="4" t="inlineStr">
         <is>
-          <t>09427135354</t>
+          <t>3698520147</t>
         </is>
       </c>
     </row>
@@ -653,12 +649,12 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>u17co012</t>
+          <t>u17co036</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>John DOe</t>
+          <t>Jay Shah</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
@@ -667,50 +663,46 @@
         </is>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36196</v>
+        <v>36561</v>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
           <t>Vadodara</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Vadodara</t>
-        </is>
-      </c>
+      <c r="G7" s="4" t="inlineStr"/>
       <c r="H7" s="4" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I7" s="4" t="n">
         <v>90</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>8.25</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P7" s="4" t="inlineStr">
         <is>
-          <t>johndoe@gmail.com</t>
+          <t>sjay5200@gmail.com</t>
         </is>
       </c>
       <c r="Q7" s="4" t="inlineStr">
         <is>
-          <t>9898989898</t>
+          <t>99663322550</t>
         </is>
       </c>
     </row>
@@ -720,30 +712,30 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>u17ec017</t>
+          <t>jay</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Hello World</t>
+          <t>Jay Shah</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>FEMALE</t>
+          <t>MALE</t>
         </is>
       </c>
       <c r="E8" s="5" t="n">
-        <v>36332</v>
+        <v>36561</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>Allahabad</t>
+          <t>Vadodara</t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>Allahabad</t>
+          <t>Vadodara</t>
         </is>
       </c>
       <c r="H8" s="4" t="n">
@@ -753,31 +745,98 @@
         <v>95</v>
       </c>
       <c r="J8" s="4" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="P8" s="4" t="inlineStr">
+        <is>
+          <t>sjay5200@gmail.com</t>
+        </is>
+      </c>
+      <c r="Q8" s="4" t="inlineStr">
+        <is>
+          <t>09427135354</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>u17co012</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>John DOe</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>36196</v>
+      </c>
+      <c r="F9" s="4" t="inlineStr">
+        <is>
+          <t>Vadodara</t>
+        </is>
+      </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>Doha</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>95</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="M9" s="4" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="K8" s="4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="P8" s="4" t="inlineStr">
-        <is>
-          <t>personal@gmail.com</t>
-        </is>
-      </c>
-      <c r="Q8" s="4" t="inlineStr">
-        <is>
-          <t>121236544</t>
+      <c r="N9" s="4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="P9" s="4" t="inlineStr">
+        <is>
+          <t>johndoe@gmail.com</t>
+        </is>
+      </c>
+      <c r="Q9" s="4" t="inlineStr">
+        <is>
+          <t>9898989898</t>
         </is>
       </c>
     </row>
